--- a/Dados melhorar atendimento 2 - Igor Saramago.xlsx
+++ b/Dados melhorar atendimento 2 - Igor Saramago.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edier\Projeto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DED1A6-8AE5-464C-9C9C-C4079884BE87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB08B6B7-9B14-4E2C-BF90-87E2A5CBBA9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{2DFA0BA1-1E71-4DFC-B468-6BD6AFBBDC64}"/>
   </bookViews>
